--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2022/Tháng 11/NKBH_AnhTuanNB_011222.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2022/Tháng 11/NKBH_AnhTuanNB_011222.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>STT</t>
   </si>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>Thiết bị treo không khởi động lên được, đầy đủ phụ kiện và hộp</t>
+  </si>
+  <si>
+    <t>WM21051100S0395 
+- 00BD000AC8</t>
   </si>
 </sst>
 </file>
@@ -443,6 +447,57 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -475,57 +530,6 @@
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -567,7 +571,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -940,8 +944,8 @@
   </sheetPr>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:J9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -963,67 +967,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="13" t="s">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="21" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="21"/>
+      <c r="M1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="21" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="21"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="21" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="21"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1033,14 +1037,14 @@
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
@@ -1054,14 +1058,14 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1089,152 +1093,152 @@
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20" t="s">
+      <c r="H8" s="37"/>
+      <c r="I8" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20" t="s">
+      <c r="J8" s="37"/>
+      <c r="K8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="20"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28">
+      <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="15">
         <v>3</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="34" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="28" t="s">
+      <c r="L9" s="20"/>
+      <c r="M9" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+      <c r="A10" s="13">
         <v>2</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="31" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+      <c r="A11" s="13">
         <v>3</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="33"/>
-    </row>
-    <row r="12" spans="1:13" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:13" s="14" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="25"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25" t="s">
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="25"/>
+      <c r="M13" s="27"/>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="26"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26" t="s">
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="26"/>
+      <c r="M14" s="28"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
@@ -1276,33 +1280,33 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="24"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24" t="s">
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="24"/>
+      <c r="M18" s="29"/>
     </row>
     <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F19" s="5"/>
@@ -1321,32 +1325,6 @@
     <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K9:L11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F18:G18"/>
     <mergeCell ref="E1:K3"/>
     <mergeCell ref="A1:D3"/>
     <mergeCell ref="B8:D8"/>
@@ -1359,6 +1337,32 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K9:L11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="1" bottom="1" header="0" footer="0"/>
